--- a/utils/config/ReferenceLists/Observed_Properties_New.xlsx
+++ b/utils/config/ReferenceLists/Observed_Properties_New.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/sahil_bhandari_gov_bc_ca/Documents/teamdocs/GitHub/aqs-api/utils/config/ReferenceLists/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bcgov-my.sharepoint.com/personal/jeremy_krogh_gov_bc_ca/Documents/Projects/2025/github_projects/aqs-api/utils/config/ReferenceLists/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="125" documentId="8_{14914D35-8641-4F30-AE69-5AD2BBC1D42C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AF165C7-4C61-4E09-A883-DE64347AF1AC}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1458A00D-CA65-4CF2-9307-1B9709084815}"/>
+    <workbookView xWindow="-10000" yWindow="-21710" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{1458A00D-CA65-4CF2-9307-1B9709084815}"/>
   </bookViews>
   <sheets>
     <sheet name="Observed_Properties_New" sheetId="1" r:id="rId1"/>
@@ -769,33 +769,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{232F1D4C-D575-4EB0-94BA-0D66318AA45B}">
   <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+    <sheetView topLeftCell="S1" workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.54296875" customWidth="1"/>
-    <col min="2" max="2" width="35.26953125" customWidth="1"/>
-    <col min="3" max="3" width="80.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="80.140625" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="22.26953125" customWidth="1"/>
-    <col min="14" max="14" width="26.7265625" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
     <col min="15" max="15" width="25" customWidth="1"/>
-    <col min="16" max="16" width="17.54296875" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
-    <col min="21" max="21" width="31.26953125" customWidth="1"/>
-    <col min="22" max="23" width="28.26953125" customWidth="1"/>
-    <col min="24" max="24" width="23.54296875" customWidth="1"/>
-    <col min="26" max="27" width="19.1796875" customWidth="1"/>
-    <col min="28" max="28" width="64.54296875" customWidth="1"/>
-    <col min="29" max="30" width="40.7265625" customWidth="1"/>
-    <col min="31" max="31" width="31.81640625" customWidth="1"/>
-    <col min="32" max="32" width="25.81640625" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" customWidth="1"/>
+    <col min="22" max="23" width="28.28515625" customWidth="1"/>
+    <col min="24" max="24" width="23.5703125" customWidth="1"/>
+    <col min="26" max="27" width="19.140625" customWidth="1"/>
+    <col min="28" max="28" width="64.5703125" customWidth="1"/>
+    <col min="29" max="30" width="40.7109375" customWidth="1"/>
+    <col min="31" max="31" width="31.85546875" customWidth="1"/>
+    <col min="32" max="32" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -890,7 +890,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -913,7 +913,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -936,7 +936,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -959,7 +959,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>110</v>
       </c>
@@ -982,7 +982,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1117,7 +1117,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>113</v>
       </c>
@@ -1201,17 +1201,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF183198-A4D3-4FFC-820E-9331077794FA}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.453125" customWidth="1"/>
-    <col min="2" max="2" width="43.7265625" customWidth="1"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>71</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1235,7 +1235,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -1243,7 +1243,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1299,7 +1299,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1331,7 +1331,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1371,7 +1371,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>30</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -1395,7 +1395,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>30</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -1435,7 +1435,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1451,7 +1451,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -1467,7 +1467,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>27</v>
       </c>
